--- a/高发电话号归属地.xlsx
+++ b/高发电话号归属地.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>电话号归属地</t>
   </si>
@@ -25,9 +25,6 @@
     <t>浙江杭州</t>
   </si>
   <si>
-    <t>error: 无输入号码!</t>
-  </si>
-  <si>
     <t>浙江绍兴</t>
   </si>
   <si>
@@ -40,12 +37,12 @@
     <t>浙江嘉兴</t>
   </si>
   <si>
+    <t>安徽阜阳</t>
+  </si>
+  <si>
     <t>浙江宁波</t>
   </si>
   <si>
-    <t>安徽阜阳</t>
-  </si>
-  <si>
     <t>浙江温州</t>
   </si>
   <si>
@@ -55,30 +52,27 @@
     <t>江苏无锡</t>
   </si>
   <si>
-    <t>error: 非法号码!</t>
-  </si>
-  <si>
     <t>重庆重庆</t>
   </si>
   <si>
     <t>河南南阳</t>
   </si>
   <si>
+    <t>浙江丽水</t>
+  </si>
+  <si>
     <t>浙江衢州</t>
   </si>
   <si>
-    <t>浙江丽水</t>
+    <t>江西上饶</t>
+  </si>
+  <si>
+    <t>浙江湖州</t>
   </si>
   <si>
     <t>江苏常州</t>
   </si>
   <si>
-    <t>江西上饶</t>
-  </si>
-  <si>
-    <t>浙江湖州</t>
-  </si>
-  <si>
     <t>山东潍坊</t>
   </si>
   <si>
@@ -88,51 +82,54 @@
     <t>北京北京</t>
   </si>
   <si>
+    <t>安徽六安</t>
+  </si>
+  <si>
     <t>安徽宿州</t>
   </si>
   <si>
-    <t>安徽六安</t>
+    <t>安徽亳州</t>
   </si>
   <si>
     <t>贵州凯里</t>
   </si>
   <si>
-    <t>安徽亳州</t>
+    <t>浙江台州</t>
   </si>
   <si>
     <t>浙江舟山</t>
   </si>
   <si>
-    <t>浙江台州</t>
+    <t>河南周口</t>
+  </si>
+  <si>
+    <t>湖南怀化</t>
+  </si>
+  <si>
+    <t>四川成都</t>
   </si>
   <si>
     <t>安徽合肥</t>
   </si>
   <si>
-    <t>河南周口</t>
-  </si>
-  <si>
-    <t>四川成都</t>
-  </si>
-  <si>
     <t>江苏徐州</t>
   </si>
   <si>
-    <t>湖南怀化</t>
+    <t>福建泉州</t>
   </si>
   <si>
     <t>安徽安庆</t>
   </si>
   <si>
+    <t>安徽池州</t>
+  </si>
+  <si>
+    <t>广东深圳</t>
+  </si>
+  <si>
     <t>安徽蚌埠</t>
   </si>
   <si>
-    <t>安徽池州</t>
-  </si>
-  <si>
-    <t>福建泉州</t>
-  </si>
-  <si>
     <t>贵州安顺</t>
   </si>
   <si>
@@ -142,454 +139,391 @@
     <t>河南郑州</t>
   </si>
   <si>
-    <t>广东深圳</t>
+    <t>四川绵阳</t>
+  </si>
+  <si>
+    <t>江西吉安</t>
+  </si>
+  <si>
+    <t>广东广州</t>
+  </si>
+  <si>
+    <t>山东济南</t>
+  </si>
+  <si>
+    <t>陕西安康</t>
+  </si>
+  <si>
+    <t>贵州兴义</t>
+  </si>
+  <si>
+    <t>江西宜春</t>
   </si>
   <si>
     <t>云南昭通</t>
   </si>
   <si>
+    <t>江苏淮安</t>
+  </si>
+  <si>
+    <t>四川达州</t>
+  </si>
+  <si>
+    <t>贵州遵义</t>
+  </si>
+  <si>
+    <t>山西太原</t>
+  </si>
+  <si>
     <t>海南海口</t>
   </si>
   <si>
+    <t>湖北襄阳</t>
+  </si>
+  <si>
+    <t>江西南昌</t>
+  </si>
+  <si>
     <t>山东枣庄</t>
   </si>
   <si>
-    <t>江西吉安</t>
-  </si>
-  <si>
-    <t>贵州兴义</t>
-  </si>
-  <si>
-    <t>贵州遵义</t>
-  </si>
-  <si>
-    <t>山西太原</t>
-  </si>
-  <si>
-    <t>江苏淮安</t>
+    <t>河南信阳</t>
   </si>
   <si>
     <t>山东菏泽</t>
   </si>
   <si>
-    <t>陕西安康</t>
-  </si>
-  <si>
-    <t>湖北襄阳</t>
-  </si>
-  <si>
-    <t>江西宜春</t>
-  </si>
-  <si>
-    <t>四川达州</t>
-  </si>
-  <si>
-    <t>河南信阳</t>
-  </si>
-  <si>
-    <t>广东广州</t>
-  </si>
-  <si>
-    <t>江西南昌</t>
-  </si>
-  <si>
-    <t>山东济南</t>
-  </si>
-  <si>
-    <t>四川绵阳</t>
+    <t>河北唐山</t>
+  </si>
+  <si>
+    <t>湖南郴州</t>
+  </si>
+  <si>
+    <t>福建宁德</t>
+  </si>
+  <si>
+    <t>广东江门</t>
+  </si>
+  <si>
+    <t>江苏宿迁</t>
+  </si>
+  <si>
+    <t>四川巴中</t>
+  </si>
+  <si>
+    <t>安徽芜湖</t>
+  </si>
+  <si>
+    <t>四川泸州</t>
+  </si>
+  <si>
+    <t>福建厦门</t>
+  </si>
+  <si>
+    <t>广西南宁</t>
+  </si>
+  <si>
+    <t>安徽黄山</t>
+  </si>
+  <si>
+    <t>广东佛山</t>
+  </si>
+  <si>
+    <t>湖北武汉</t>
+  </si>
+  <si>
+    <t>江西抚州</t>
+  </si>
+  <si>
+    <t>辽宁沈阳</t>
+  </si>
+  <si>
+    <t>广东东莞</t>
   </si>
   <si>
     <t>贵州铜仁</t>
   </si>
   <si>
+    <t>河南洛阳</t>
+  </si>
+  <si>
+    <t>湖南长沙</t>
+  </si>
+  <si>
+    <t>贵州都匀</t>
+  </si>
+  <si>
+    <t>贵州黔南</t>
+  </si>
+  <si>
+    <t>江西九江</t>
+  </si>
+  <si>
+    <t>山东临沂</t>
+  </si>
+  <si>
+    <t>安徽滁州</t>
+  </si>
+  <si>
+    <t>山东青岛</t>
+  </si>
+  <si>
+    <t>江苏南通</t>
+  </si>
+  <si>
+    <t>河北石家庄</t>
+  </si>
+  <si>
+    <t>安徽淮北</t>
+  </si>
+  <si>
+    <t>湖北江汉</t>
+  </si>
+  <si>
+    <t>辽宁阜新</t>
+  </si>
+  <si>
+    <t>四川自贡</t>
+  </si>
+  <si>
     <t>黑龙江哈尔滨</t>
   </si>
   <si>
-    <t>安徽滁州</t>
-  </si>
-  <si>
-    <t>湖南郴州</t>
-  </si>
-  <si>
-    <t>广东江门</t>
-  </si>
-  <si>
-    <t>广东佛山</t>
-  </si>
-  <si>
-    <t>安徽黄山</t>
-  </si>
-  <si>
-    <t>广西南宁</t>
-  </si>
-  <si>
-    <t>河北石家庄</t>
-  </si>
-  <si>
-    <t>广东东莞</t>
-  </si>
-  <si>
-    <t>贵州黔南</t>
-  </si>
-  <si>
-    <t>河南洛阳</t>
-  </si>
-  <si>
-    <t>江西九江</t>
-  </si>
-  <si>
-    <t>山东临沂</t>
-  </si>
-  <si>
-    <t>福建厦门</t>
-  </si>
-  <si>
-    <t>四川自贡</t>
-  </si>
-  <si>
-    <t>湖南长沙</t>
-  </si>
-  <si>
-    <t>辽宁阜新</t>
-  </si>
-  <si>
-    <t>江西抚州</t>
-  </si>
-  <si>
-    <t>辽宁沈阳</t>
-  </si>
-  <si>
-    <t>江苏南通</t>
-  </si>
-  <si>
-    <t>湖北武汉</t>
-  </si>
-  <si>
-    <t>贵州都匀</t>
-  </si>
-  <si>
-    <t>山东青岛</t>
-  </si>
-  <si>
-    <t>福建宁德</t>
-  </si>
-  <si>
-    <t>四川泸州</t>
+    <t>广东惠州</t>
+  </si>
+  <si>
+    <t>安徽铜陵</t>
+  </si>
+  <si>
+    <t>湖南娄底</t>
+  </si>
+  <si>
+    <t>四川广元</t>
   </si>
   <si>
     <t>江苏南京</t>
   </si>
   <si>
-    <t>湖南娄底</t>
+    <t>陕西西安</t>
+  </si>
+  <si>
+    <t>福建三明</t>
+  </si>
+  <si>
+    <t>辽宁大连</t>
+  </si>
+  <si>
+    <t>湖北荆门</t>
+  </si>
+  <si>
+    <t>湖北咸宁</t>
   </si>
   <si>
     <t>山东济宁</t>
   </si>
   <si>
-    <t>湖北江汉</t>
-  </si>
-  <si>
-    <t>安徽淮北</t>
+    <t>河南驻马店</t>
   </si>
   <si>
     <t>云南昆明</t>
   </si>
   <si>
-    <t>四川巴中</t>
-  </si>
-  <si>
-    <t>湖北荆门</t>
-  </si>
-  <si>
-    <t>河南驻马店</t>
-  </si>
-  <si>
-    <t>四川广元</t>
-  </si>
-  <si>
     <t>辽宁锦州</t>
   </si>
   <si>
-    <t>福建三明</t>
-  </si>
-  <si>
-    <t>江苏宿迁</t>
-  </si>
-  <si>
-    <t>辽宁大连</t>
-  </si>
-  <si>
-    <t>湖北咸宁</t>
-  </si>
-  <si>
-    <t>河北唐山</t>
-  </si>
-  <si>
-    <t>安徽芜湖</t>
-  </si>
-  <si>
-    <t>陕西西安</t>
-  </si>
-  <si>
-    <t>安徽铜陵</t>
-  </si>
-  <si>
-    <t>广东惠州</t>
+    <t>贵州贵阳</t>
+  </si>
+  <si>
+    <t>天津天津</t>
+  </si>
+  <si>
+    <t>湖北孝感</t>
+  </si>
+  <si>
+    <t>广西贵港</t>
+  </si>
+  <si>
+    <t>山东淄博</t>
+  </si>
+  <si>
+    <t>湖南岳阳</t>
+  </si>
+  <si>
+    <t>湖南衡阳</t>
   </si>
   <si>
     <t>宁夏石嘴山</t>
   </si>
   <si>
+    <t>湖北荆州</t>
+  </si>
+  <si>
+    <t>云南楚雄</t>
+  </si>
+  <si>
+    <t>福建福州</t>
+  </si>
+  <si>
+    <t>湖南永州</t>
+  </si>
+  <si>
+    <t>云南玉溪</t>
+  </si>
+  <si>
+    <t>山东东营</t>
+  </si>
+  <si>
+    <t>新疆昌吉</t>
+  </si>
+  <si>
+    <t>四川南充</t>
+  </si>
+  <si>
+    <t>四川阿坝</t>
+  </si>
+  <si>
+    <t>江西萍乡</t>
+  </si>
+  <si>
+    <t>湖北黄石</t>
+  </si>
+  <si>
+    <t>广西贺州</t>
+  </si>
+  <si>
     <t>福建龙岩</t>
   </si>
   <si>
-    <t>湖北黄石</t>
-  </si>
-  <si>
-    <t>新疆昌吉</t>
-  </si>
-  <si>
-    <t>广西贺州</t>
-  </si>
-  <si>
-    <t>江西萍乡</t>
-  </si>
-  <si>
-    <t>四川阿坝</t>
-  </si>
-  <si>
-    <t>四川南充</t>
+    <t>吉林吉林</t>
+  </si>
+  <si>
+    <t>陕西渭南</t>
+  </si>
+  <si>
+    <t>黑龙江牡丹江</t>
+  </si>
+  <si>
+    <t>河南开封</t>
+  </si>
+  <si>
+    <t>山东威海</t>
+  </si>
+  <si>
+    <t>湖北宜昌</t>
+  </si>
+  <si>
+    <t>黑龙江齐齐哈尔</t>
+  </si>
+  <si>
+    <t>湖北黄冈</t>
+  </si>
+  <si>
+    <t>宁夏银川</t>
+  </si>
+  <si>
+    <t>内蒙古呼和浩特</t>
   </si>
   <si>
     <t>江苏扬州</t>
   </si>
   <si>
-    <t>error: 虚拟号码!</t>
-  </si>
-  <si>
-    <t>黑龙江齐齐哈尔</t>
-  </si>
-  <si>
-    <t>湖北黄冈</t>
-  </si>
-  <si>
-    <t>宁夏银川</t>
-  </si>
-  <si>
-    <t>贵州贵阳</t>
-  </si>
-  <si>
-    <t>湖南岳阳</t>
-  </si>
-  <si>
-    <t>天津天津</t>
-  </si>
-  <si>
-    <t>陕西渭南</t>
-  </si>
-  <si>
-    <t>广西贵港</t>
-  </si>
-  <si>
-    <t>河南开封</t>
-  </si>
-  <si>
-    <t>山东威海</t>
-  </si>
-  <si>
-    <t>山东东营</t>
-  </si>
-  <si>
-    <t>内蒙古呼和浩特</t>
-  </si>
-  <si>
-    <t>湖北宜昌</t>
-  </si>
-  <si>
-    <t>黑龙江牡丹江</t>
-  </si>
-  <si>
-    <t>湖南永州</t>
+    <t>辽宁丹东</t>
+  </si>
+  <si>
+    <t>江西景德镇</t>
+  </si>
+  <si>
+    <t>河北衡水</t>
+  </si>
+  <si>
+    <t>河南许昌</t>
+  </si>
+  <si>
+    <t>河北沧州</t>
+  </si>
+  <si>
+    <t>广东清远</t>
+  </si>
+  <si>
+    <t>吉林长春</t>
+  </si>
+  <si>
+    <t>湖南株洲</t>
+  </si>
+  <si>
+    <t>湖北恩施</t>
+  </si>
+  <si>
+    <t>安徽淮南</t>
+  </si>
+  <si>
+    <t>福建莆田</t>
+  </si>
+  <si>
+    <t>湖南常德</t>
+  </si>
+  <si>
+    <t>新疆乌鲁木齐</t>
+  </si>
+  <si>
+    <t>江苏盐城</t>
+  </si>
+  <si>
+    <t>江苏镇江</t>
+  </si>
+  <si>
+    <t>重庆黔江</t>
+  </si>
+  <si>
+    <t>河南漯河</t>
+  </si>
+  <si>
+    <t>湖南吉首</t>
+  </si>
+  <si>
+    <t>湖南益阳</t>
+  </si>
+  <si>
+    <t>重庆万州</t>
+  </si>
+  <si>
+    <t>湖北十堰</t>
+  </si>
+  <si>
+    <t>广东中山</t>
+  </si>
+  <si>
+    <t>山西阳泉</t>
+  </si>
+  <si>
+    <t>山东烟台</t>
+  </si>
+  <si>
+    <t>辽宁鞍山</t>
+  </si>
+  <si>
+    <t>贵州黔东南</t>
+  </si>
+  <si>
+    <t>黑龙江鹤岗</t>
+  </si>
+  <si>
+    <t>云南曲靖</t>
+  </si>
+  <si>
+    <t>四川德阳</t>
   </si>
   <si>
     <t>甘肃兰州</t>
   </si>
   <si>
-    <t>河北沧州</t>
-  </si>
-  <si>
-    <t>江西景德镇</t>
-  </si>
-  <si>
-    <t>湖南吉首</t>
-  </si>
-  <si>
-    <t>广东中山</t>
-  </si>
-  <si>
-    <t>山西阳泉</t>
-  </si>
-  <si>
-    <t>贵州黔东南</t>
-  </si>
-  <si>
-    <t>云南曲靖</t>
-  </si>
-  <si>
-    <t>四川德阳</t>
+    <t>河北保定</t>
   </si>
   <si>
     <t>云南红河</t>
   </si>
   <si>
-    <t>湖北恩施</t>
-  </si>
-  <si>
-    <t>湖北荆州</t>
-  </si>
-  <si>
-    <t>湖北孝感</t>
-  </si>
-  <si>
-    <t>山东淄博</t>
-  </si>
-  <si>
-    <t>湖南衡阳</t>
-  </si>
-  <si>
-    <t>云南楚雄</t>
-  </si>
-  <si>
-    <t>福建福州</t>
-  </si>
-  <si>
-    <t>云南玉溪</t>
-  </si>
-  <si>
-    <t>吉林吉林</t>
-  </si>
-  <si>
-    <t>河南许昌</t>
-  </si>
-  <si>
-    <t>广东清远</t>
-  </si>
-  <si>
-    <t>黑龙江鹤岗</t>
-  </si>
-  <si>
-    <t>吉林长春</t>
-  </si>
-  <si>
-    <t>辽宁鞍山</t>
-  </si>
-  <si>
-    <t>山东烟台</t>
-  </si>
-  <si>
-    <t>湖北十堰</t>
-  </si>
-  <si>
-    <t>重庆万州</t>
-  </si>
-  <si>
-    <t>湖南益阳</t>
-  </si>
-  <si>
-    <t>河南漯河</t>
-  </si>
-  <si>
-    <t>重庆黔江</t>
-  </si>
-  <si>
-    <t>河北衡水</t>
-  </si>
-  <si>
-    <t>辽宁丹东</t>
-  </si>
-  <si>
-    <t>安徽淮南</t>
-  </si>
-  <si>
-    <t>江苏盐城</t>
-  </si>
-  <si>
-    <t>江苏镇江</t>
-  </si>
-  <si>
-    <t>河北保定</t>
-  </si>
-  <si>
-    <t>新疆乌鲁木齐</t>
-  </si>
-  <si>
-    <t>湖南常德</t>
-  </si>
-  <si>
-    <t>福建莆田</t>
-  </si>
-  <si>
-    <t>湖南株洲</t>
-  </si>
-  <si>
     <t>安徽马鞍山</t>
-  </si>
-  <si>
-    <t>2895</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -703,513 +637,504 @@
                   <c:v>浙江杭州</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>error: 无输入号码!</c:v>
+                  <c:v>浙江绍兴</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>浙江绍兴</c:v>
+                  <c:v>浙江金华</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>浙江金华</c:v>
+                  <c:v>上海上海</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>上海上海</c:v>
+                  <c:v>浙江嘉兴</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>浙江嘉兴</c:v>
+                  <c:v>安徽阜阳</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>浙江宁波</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>安徽阜阳</c:v>
+                  <c:v>浙江温州</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>浙江温州</c:v>
+                  <c:v>江苏苏州</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>江苏苏州</c:v>
+                  <c:v>江苏无锡</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>江苏无锡</c:v>
+                  <c:v>重庆重庆</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>error: 非法号码!</c:v>
+                  <c:v>河南南阳</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>重庆重庆</c:v>
+                  <c:v>浙江丽水</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>河南南阳</c:v>
+                  <c:v>浙江衢州</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>浙江衢州</c:v>
+                  <c:v>江西上饶</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>浙江丽水</c:v>
+                  <c:v>浙江湖州</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>江苏常州</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>江西上饶</c:v>
+                  <c:v>山东潍坊</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>浙江湖州</c:v>
+                  <c:v>河南商丘</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>山东潍坊</c:v>
+                  <c:v>北京北京</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>河南商丘</c:v>
+                  <c:v>安徽六安</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>北京北京</c:v>
+                  <c:v>安徽宿州</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>安徽宿州</c:v>
+                  <c:v>安徽亳州</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>安徽六安</c:v>
+                  <c:v>贵州凯里</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>贵州凯里</c:v>
+                  <c:v>浙江台州</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>安徽亳州</c:v>
+                  <c:v>浙江舟山</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>浙江舟山</c:v>
+                  <c:v>河南周口</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>浙江台州</c:v>
+                  <c:v>湖南怀化</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>四川成都</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>安徽合肥</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>河南周口</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>四川成都</c:v>
+                  <c:v>江苏徐州</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>江苏徐州</c:v>
+                  <c:v>福建泉州</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>湖南怀化</c:v>
+                  <c:v>安徽安庆</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>安徽安庆</c:v>
+                  <c:v>安徽池州</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>广东深圳</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>安徽蚌埠</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>安徽池州</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>福建泉州</c:v>
+                  <c:v>贵州安顺</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>贵州安顺</c:v>
+                  <c:v>安徽宣城</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>安徽宣城</c:v>
+                  <c:v>河南郑州</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>河南郑州</c:v>
+                  <c:v>四川绵阳</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>广东深圳</c:v>
+                  <c:v>江西吉安</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>广东广州</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>山东济南</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>陕西安康</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>贵州兴义</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>江西宜春</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>云南昭通</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
+                  <c:v>江苏淮安</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>四川达州</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>贵州遵义</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>山西太原</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>海南海口</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
+                  <c:v>湖北襄阳</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>江西南昌</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>山东枣庄</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>江西吉安</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>贵州兴义</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>贵州遵义</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>山西太原</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>江苏淮安</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
+                  <c:v>河南信阳</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>山东菏泽</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>陕西安康</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>湖北襄阳</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>江西宜春</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>四川达州</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>河南信阳</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>广东广州</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>江西南昌</c:v>
-                </c:pt>
                 <c:pt idx="57">
-                  <c:v>山东济南</c:v>
+                  <c:v>河北唐山</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>四川绵阳</c:v>
+                  <c:v>湖南郴州</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>贵州铜仁</c:v>
+                  <c:v>福建宁德</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>黑龙江哈尔滨</c:v>
+                  <c:v>广东江门</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>安徽滁州</c:v>
+                  <c:v>江苏宿迁</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>湖南郴州</c:v>
+                  <c:v>四川巴中</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>广东江门</c:v>
+                  <c:v>安徽芜湖</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>广东佛山</c:v>
+                  <c:v>四川泸州</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>安徽黄山</c:v>
+                  <c:v>福建厦门</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>广西南宁</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>河北石家庄</c:v>
+                  <c:v>安徽黄山</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>广东佛山</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>湖北武汉</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>江西抚州</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>辽宁沈阳</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>广东东莞</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>贵州黔南</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="73">
+                  <c:v>贵州铜仁</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>河南洛阳</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>江西九江</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>山东临沂</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>福建厦门</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>四川自贡</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>湖南长沙</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>贵州都匀</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>贵州黔南</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>江西九江</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>山东临沂</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>安徽滁州</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>山东青岛</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>江苏南通</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>河北石家庄</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>安徽淮北</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>湖北江汉</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>辽宁阜新</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>江西抚州</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>辽宁沈阳</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>江苏南通</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>湖北武汉</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>贵州都匀</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>山东青岛</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>福建宁德</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>四川泸州</c:v>
-                </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
+                  <c:v>四川自贡</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>黑龙江哈尔滨</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>广东惠州</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>安徽铜陵</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>湖南娄底</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>四川广元</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>江苏南京</c:v>
                 </c:pt>
-                <c:pt idx="86">
-                  <c:v>湖南娄底</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="94">
+                  <c:v>陕西西安</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>福建三明</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>辽宁大连</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>湖北荆门</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>湖北咸宁</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>山东济宁</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>湖北江汉</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>安徽淮北</c:v>
-                </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
+                  <c:v>河南驻马店</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>云南昆明</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>四川巴中</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>湖北荆门</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>河南驻马店</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>四川广元</c:v>
-                </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="102">
                   <c:v>辽宁锦州</c:v>
                 </c:pt>
-                <c:pt idx="96">
-                  <c:v>福建三明</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>江苏宿迁</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>辽宁大连</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>湖北咸宁</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>河北唐山</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>安徽芜湖</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>陕西西安</c:v>
-                </c:pt>
                 <c:pt idx="103">
-                  <c:v>安徽铜陵</c:v>
+                  <c:v>贵州贵阳</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>广东惠州</c:v>
+                  <c:v>天津天津</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>湖北孝感</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>广西贵港</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>山东淄博</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>湖南岳阳</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>湖南衡阳</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>宁夏石嘴山</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="111">
+                  <c:v>湖北荆州</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>云南楚雄</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>福建福州</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>湖南永州</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>云南玉溪</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>山东东营</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>新疆昌吉</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>四川南充</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>四川阿坝</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>江西萍乡</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>湖北黄石</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>广西贺州</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>福建龙岩</c:v>
                 </c:pt>
-                <c:pt idx="107">
-                  <c:v>湖北黄石</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>新疆昌吉</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>广西贺州</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>江西萍乡</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>四川阿坝</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>四川南充</c:v>
-                </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="124">
+                  <c:v>吉林吉林</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>陕西渭南</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>黑龙江牡丹江</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>河南开封</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>山东威海</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>湖北宜昌</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>黑龙江齐齐哈尔</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>湖北黄冈</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>宁夏银川</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>内蒙古呼和浩特</c:v>
+                </c:pt>
+                <c:pt idx="134">
                   <c:v>江苏扬州</c:v>
                 </c:pt>
-                <c:pt idx="114">
-                  <c:v>error: 虚拟号码!</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>黑龙江齐齐哈尔</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>湖北黄冈</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>宁夏银川</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>贵州贵阳</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>湖南岳阳</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>天津天津</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>陕西渭南</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>广西贵港</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>河南开封</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>山东威海</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>山东东营</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>内蒙古呼和浩特</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>湖北宜昌</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>黑龙江牡丹江</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>湖南永州</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>甘肃兰州</c:v>
-                </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="135">
+                  <c:v>辽宁丹东</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>江西景德镇</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>河北衡水</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>河南许昌</c:v>
+                </c:pt>
+                <c:pt idx="139">
                   <c:v>河北沧州</c:v>
                 </c:pt>
-                <c:pt idx="132">
-                  <c:v>江西景德镇</c:v>
-                </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="140">
+                  <c:v>广东清远</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>吉林长春</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>湖南株洲</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>湖北恩施</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>安徽淮南</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>福建莆田</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>湖南常德</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>新疆乌鲁木齐</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>江苏盐城</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>江苏镇江</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>重庆黔江</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>河南漯河</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>湖南吉首</c:v>
                 </c:pt>
-                <c:pt idx="134">
-                  <c:v>广东中山</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>山西阳泉</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>贵州黔东南</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>云南曲靖</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>四川德阳</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>云南红河</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>湖北恩施</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>湖北荆州</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>湖北孝感</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>山东淄博</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>湖南衡阳</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>云南楚雄</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>福建福州</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>云南玉溪</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>吉林吉林</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>河南许昌</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>广东清远</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>黑龙江鹤岗</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>吉林长春</c:v>
-                </c:pt>
                 <c:pt idx="153">
-                  <c:v>辽宁鞍山</c:v>
+                  <c:v>湖南益阳</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>山东烟台</c:v>
+                  <c:v>重庆万州</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>湖北十堰</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>重庆万州</c:v>
+                  <c:v>广东中山</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>湖南益阳</c:v>
+                  <c:v>山西阳泉</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>河南漯河</c:v>
+                  <c:v>山东烟台</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>重庆黔江</c:v>
+                  <c:v>辽宁鞍山</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>河北衡水</c:v>
+                  <c:v>贵州黔东南</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>辽宁丹东</c:v>
+                  <c:v>黑龙江鹤岗</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>安徽淮南</c:v>
+                  <c:v>云南曲靖</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>江苏盐城</c:v>
+                  <c:v>四川德阳</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>江苏镇江</c:v>
+                  <c:v>甘肃兰州</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>河北保定</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>新疆乌鲁木齐</c:v>
+                  <c:v>云南红河</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>湖南常德</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>福建莆田</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>湖南株洲</c:v>
-                </c:pt>
-                <c:pt idx="170">
                   <c:v>安徽马鞍山</c:v>
                 </c:pt>
               </c:strCache>
@@ -1225,49 +1150,49 @@
                   <c:v>2895</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>527</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>7</c:v>
@@ -1288,16 +1213,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5</c:v>
@@ -1315,10 +1240,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4</c:v>
@@ -1339,10 +1264,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3</c:v>
@@ -1393,10 +1318,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>2</c:v>
@@ -1531,10 +1456,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>1</c:v>
@@ -1723,15 +1648,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="170">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2138,7 +2054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2159,1368 +2075,1344 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>173</v>
+      <c r="B2">
+        <v>2895</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>174</v>
+      <c r="B3">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>175</v>
+      <c r="B4">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>176</v>
+      <c r="B5">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>177</v>
+      <c r="B6">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>178</v>
+      <c r="B7">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>179</v>
+      <c r="B8">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>179</v>
+      <c r="B9">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>180</v>
+      <c r="B10">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>180</v>
+      <c r="B11">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>181</v>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>182</v>
+      <c r="B13">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>182</v>
+      <c r="B14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>183</v>
+      <c r="B15">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>184</v>
+      <c r="B16">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>184</v>
+      <c r="B17">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>185</v>
+      <c r="B18">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>185</v>
+      <c r="B19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>185</v>
+      <c r="B20">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>185</v>
+      <c r="B21">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>185</v>
+      <c r="B22">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>185</v>
+      <c r="B23">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>185</v>
+      <c r="B24">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>185</v>
+      <c r="B25">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>186</v>
+      <c r="B26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>186</v>
+      <c r="B27">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>187</v>
+      <c r="B28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>187</v>
+      <c r="B29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>187</v>
+      <c r="B30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="B31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>187</v>
+      <c r="B32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>187</v>
+      <c r="B33">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>187</v>
+      <c r="B34">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>188</v>
+      <c r="B35">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>188</v>
+      <c r="B36">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>188</v>
+      <c r="B37">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>188</v>
+      <c r="B38">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>188</v>
+      <c r="B39">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>188</v>
+      <c r="B40">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>188</v>
+      <c r="B41">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>188</v>
+      <c r="B42">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>189</v>
+      <c r="B43">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>189</v>
+      <c r="B44">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>189</v>
+      <c r="B45">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>189</v>
+      <c r="B46">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>189</v>
+      <c r="B47">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>189</v>
+      <c r="B48">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>189</v>
+      <c r="B49">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>189</v>
+      <c r="B50">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
-        <v>189</v>
+      <c r="B51">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
-        <v>189</v>
+      <c r="B52">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
-        <v>189</v>
+      <c r="B53">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
-        <v>189</v>
+      <c r="B54">
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
-        <v>189</v>
+      <c r="B55">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
-        <v>189</v>
+      <c r="B56">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
-        <v>189</v>
+      <c r="B57">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
-        <v>189</v>
+      <c r="B58">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>189</v>
+      <c r="B59">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>189</v>
+      <c r="B60">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
-        <v>190</v>
+      <c r="B61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
-        <v>190</v>
+      <c r="B62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
-        <v>190</v>
+      <c r="B63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>190</v>
+      <c r="B64">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
-        <v>190</v>
+      <c r="B65">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
-        <v>190</v>
+      <c r="B66">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
-        <v>190</v>
+      <c r="B67">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
-        <v>190</v>
+      <c r="B68">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
-        <v>190</v>
+      <c r="B69">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
-        <v>190</v>
+      <c r="B70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
-        <v>190</v>
+      <c r="B71">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
-        <v>190</v>
+      <c r="B72">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
-        <v>190</v>
+      <c r="B73">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
-        <v>190</v>
+      <c r="B74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
-        <v>190</v>
+      <c r="B75">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
-        <v>190</v>
+      <c r="B76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
-        <v>190</v>
+      <c r="B77">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
-        <v>190</v>
+      <c r="B78">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
-        <v>190</v>
+      <c r="B79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
-        <v>190</v>
+      <c r="B80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
-        <v>190</v>
+      <c r="B81">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>190</v>
+      <c r="B82">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="s">
-        <v>190</v>
+      <c r="B83">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
-        <v>190</v>
+      <c r="B84">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
-        <v>190</v>
+      <c r="B85">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="s">
-        <v>190</v>
+      <c r="B86">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
-        <v>190</v>
+      <c r="B87">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
-        <v>190</v>
+      <c r="B88">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
-        <v>190</v>
+      <c r="B89">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
-        <v>190</v>
+      <c r="B90">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
-        <v>190</v>
+      <c r="B91">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
-        <v>190</v>
+      <c r="B92">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
-        <v>190</v>
+      <c r="B93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="s">
-        <v>190</v>
+      <c r="B94">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="s">
-        <v>190</v>
+      <c r="B95">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="s">
-        <v>190</v>
+      <c r="B96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="s">
-        <v>190</v>
+      <c r="B97">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="s">
-        <v>190</v>
+      <c r="B98">
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="s">
-        <v>190</v>
+      <c r="B99">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
-        <v>190</v>
+      <c r="B100">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
-        <v>190</v>
+      <c r="B101">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
-        <v>190</v>
+      <c r="B102">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
-        <v>190</v>
+      <c r="B103">
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
-        <v>190</v>
+      <c r="B104">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="s">
-        <v>190</v>
+      <c r="B105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
-        <v>190</v>
+      <c r="B106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
-        <v>191</v>
+      <c r="B107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
-        <v>191</v>
+      <c r="B108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="s">
-        <v>191</v>
+      <c r="B109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="s">
-        <v>191</v>
+      <c r="B110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="s">
-        <v>191</v>
+      <c r="B111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="s">
-        <v>191</v>
+      <c r="B112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="s">
-        <v>191</v>
+      <c r="B113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="s">
-        <v>191</v>
+      <c r="B114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="s">
-        <v>191</v>
+      <c r="B115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
-        <v>191</v>
+      <c r="B116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="s">
-        <v>191</v>
+      <c r="B117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="s">
-        <v>191</v>
+      <c r="B118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="s">
-        <v>191</v>
+      <c r="B119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="s">
-        <v>191</v>
+      <c r="B120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="s">
-        <v>191</v>
+      <c r="B121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="s">
-        <v>191</v>
+      <c r="B122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="s">
-        <v>191</v>
+      <c r="B123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="s">
-        <v>191</v>
+      <c r="B124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="s">
-        <v>191</v>
+      <c r="B125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="s">
-        <v>191</v>
+      <c r="B126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="s">
-        <v>191</v>
+      <c r="B127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="s">
-        <v>191</v>
+      <c r="B128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
-        <v>191</v>
+      <c r="B129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="s">
-        <v>191</v>
+      <c r="B130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="s">
-        <v>191</v>
+      <c r="B131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="s">
-        <v>191</v>
+      <c r="B132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="s">
-        <v>191</v>
+      <c r="B133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="B134" t="s">
-        <v>191</v>
+      <c r="B134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="B135" t="s">
-        <v>191</v>
+      <c r="B135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B136" t="s">
-        <v>191</v>
+      <c r="B136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="s">
-        <v>191</v>
+      <c r="B137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="B138" t="s">
-        <v>191</v>
+      <c r="B138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B139" t="s">
-        <v>191</v>
+      <c r="B139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="B140" t="s">
-        <v>191</v>
+      <c r="B140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="s">
-        <v>191</v>
+      <c r="B141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
-      <c r="B142" t="s">
-        <v>191</v>
+      <c r="B142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
-      <c r="B143" t="s">
-        <v>191</v>
+      <c r="B143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="B144" t="s">
-        <v>191</v>
+      <c r="B144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="B145" t="s">
-        <v>191</v>
+      <c r="B145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
-      <c r="B146" t="s">
-        <v>191</v>
+      <c r="B146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
-      <c r="B147" t="s">
-        <v>191</v>
+      <c r="B147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
-      <c r="B148" t="s">
-        <v>191</v>
+      <c r="B148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>149</v>
       </c>
-      <c r="B149" t="s">
-        <v>191</v>
+      <c r="B149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>150</v>
       </c>
-      <c r="B150" t="s">
-        <v>191</v>
+      <c r="B150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
-      <c r="B151" t="s">
-        <v>191</v>
+      <c r="B151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
-      <c r="B152" t="s">
-        <v>191</v>
+      <c r="B152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
-      <c r="B153" t="s">
-        <v>191</v>
+      <c r="B153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
-      <c r="B154" t="s">
-        <v>191</v>
+      <c r="B154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
-      <c r="B155" t="s">
-        <v>191</v>
+      <c r="B155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
-      <c r="B156" t="s">
-        <v>191</v>
+      <c r="B156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
-      <c r="B157" t="s">
-        <v>191</v>
+      <c r="B157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
-      <c r="B158" t="s">
-        <v>191</v>
+      <c r="B158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
-      <c r="B159" t="s">
-        <v>191</v>
+      <c r="B159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
-      <c r="B160" t="s">
-        <v>191</v>
+      <c r="B160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
-      <c r="B161" t="s">
-        <v>191</v>
+      <c r="B161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
-      <c r="B162" t="s">
-        <v>191</v>
+      <c r="B162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>163</v>
       </c>
-      <c r="B163" t="s">
-        <v>191</v>
+      <c r="B163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>164</v>
       </c>
-      <c r="B164" t="s">
-        <v>191</v>
+      <c r="B164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>165</v>
       </c>
-      <c r="B165" t="s">
-        <v>191</v>
+      <c r="B165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
-      <c r="B166" t="s">
-        <v>191</v>
+      <c r="B166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>167</v>
       </c>
-      <c r="B167" t="s">
-        <v>191</v>
+      <c r="B167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>168</v>
       </c>
-      <c r="B168" t="s">
-        <v>191</v>
+      <c r="B168">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
-      <c r="B169" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172" t="s">
-        <v>191</v>
+      <c r="B169">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
